--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\testing\Auth_Regis_Form_Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D296D8-EAB7-4394-921B-B8B14375DFE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="296">
   <si>
     <t>Test case id</t>
   </si>
@@ -393,8 +402,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Login: "1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890"
 Email: "BigLogin@test.com"
@@ -405,15 +415,17 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>&lt;Long Login&gt;</t>
     </r>
@@ -586,8 +598,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Login: "Avel"
 Email: "Avel@test.com"
@@ -596,8 +609,9 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/Avel</t>
     </r>
@@ -639,8 +653,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Login: "Zeus"
 Email: "Zeus@test.com"
@@ -651,8 +666,9 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/Zeus</t>
     </r>
@@ -695,8 +711,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Login: "Jason"
 Email: "jason@test.com"
@@ -707,8 +724,9 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/Jason</t>
     </r>
@@ -757,8 +775,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Login: "Michael"
 Email: "michael@test.com"
@@ -769,8 +788,9 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/Michael</t>
     </r>
@@ -810,8 +830,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Login: "Ben"
 Email: "ben@example.com"
@@ -822,8 +843,9 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/Ben</t>
     </r>
@@ -866,8 +888,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Login: "Marcus"
 Email: "Marcus@mail.com"
@@ -878,8 +901,9 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/Marcus</t>
     </r>
@@ -1268,9 +1292,6 @@
 2. Поле Password окрашено крассным, отсутствует сообщение об ошибке</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Очевидно, что система окрашивает поле красным, так как пароль для конкретного пользователя является некорректным, но сообщение об ошибке отсутствует, что не дает понять пользователю, в чем заключается ошибка и может привести к отрицательному пользовательскому опыту</t>
   </si>
   <si>
@@ -1350,15 +1371,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">URL: </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/Dmitry</t>
     </r>
@@ -1406,15 +1429,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">URL: </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/SuperUser</t>
     </r>
@@ -1457,15 +1482,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">URL: </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/</t>
     </r>
@@ -1494,15 +1521,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">URL: </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/users/users/</t>
     </r>
@@ -1535,54 +1564,80 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">URL: </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/users/users/?extraField=ExtraValue</t>
     </r>
+  </si>
+  <si>
+    <t>1. Форме отправлена
+2. Поле Password окрашивается красным, появляется сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>Defect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFEFEFEF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1590,7 +1645,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1612,7 +1667,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1626,6 +1687,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1634,87 +1696,69 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1904,32 +1948,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I32" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.38"/>
-    <col customWidth="1" min="2" max="2" width="32.75"/>
-    <col customWidth="1" min="3" max="3" width="46.38"/>
-    <col customWidth="1" min="4" max="4" width="27.63"/>
-    <col customWidth="1" min="7" max="7" width="25.63"/>
-    <col customWidth="1" min="8" max="8" width="51.5"/>
-    <col customWidth="1" min="9" max="9" width="45.0"/>
-    <col customWidth="1" min="10" max="10" width="43.5"/>
-    <col customWidth="1" min="11" max="11" width="35.38"/>
-    <col customWidth="1" min="13" max="13" width="27.13"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="51.44140625" customWidth="1"/>
+    <col min="9" max="9" width="45" customWidth="1"/>
+    <col min="10" max="10" width="43.44140625" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" customWidth="1"/>
+    <col min="13" max="13" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.0" customHeight="1">
+    <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1939,16 +1988,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1970,1481 +2019,1481 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="151.5" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" ht="145.5" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" ht="161.25" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" ht="164.25" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" ht="146.25" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" ht="114.75" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" ht="125.25" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" ht="116.25" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" ht="25.5" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" ht="171.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" ht="153.0" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" ht="109.5" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" ht="133.5" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" ht="136.5" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" ht="41.25" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" ht="189.75" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" ht="126.75" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" ht="131.25" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" ht="35.25" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" ht="156.0" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" ht="174.75" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" ht="121.5" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" ht="35.25" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" ht="123.75" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" ht="123.0" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" ht="125.25" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" ht="125.25" customHeight="1">
-      <c r="A28" s="4" t="s">
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" ht="39.0" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="10"/>
-    </row>
-    <row r="30" ht="120.75" customHeight="1">
-      <c r="A30" s="4" t="s">
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="11"/>
-    </row>
-    <row r="31" ht="100.5" customHeight="1">
-      <c r="A31" s="4" t="s">
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M31" s="11"/>
-    </row>
-    <row r="32" ht="92.25" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" ht="141.0" customHeight="1">
-      <c r="A33" s="4" t="s">
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" ht="161.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" ht="85.5" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="K34" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:14" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:14" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="L34" s="4" t="s">
+      <c r="G39" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" ht="85.5" customHeight="1">
-      <c r="A35" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:14" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:14" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="L35" s="4" t="s">
+      <c r="G41" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="11"/>
-    </row>
-    <row r="36" ht="34.5" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="10"/>
-    </row>
-    <row r="37" ht="165.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="11"/>
-    </row>
-    <row r="38" ht="165.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="11"/>
-    </row>
-    <row r="39" ht="165.75" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="11"/>
-    </row>
-    <row r="40" ht="165.75" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M40" s="11"/>
-    </row>
-    <row r="41" ht="165.75" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="11"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E9 E11:E15 E17:E19 E21:E23 E25:E28 E30:E35 E37:E41">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E9 E11:E15 E17:E19 E21:E23 E25:E28 E30:E35 E37:E41" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F9 F11:F15 F17:F19 F21:F23 F25:F28 F30:F35 F37:F41">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F9 F11:F15 F17:F19 F21:F23 F25:F28 F30:F35 F37:F41" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\testing\Auth_Regis_Form_Tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D296D8-EAB7-4394-921B-B8B14375DFE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="295">
   <si>
     <t>Test case id</t>
   </si>
@@ -402,9 +393,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Login: "1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890"
 Email: "BigLogin@test.com"
@@ -415,17 +405,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>&lt;Long Login&gt;</t>
     </r>
@@ -598,9 +586,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Login: "Avel"
 Email: "Avel@test.com"
@@ -609,9 +596,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/Avel</t>
     </r>
@@ -653,9 +639,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Login: "Zeus"
 Email: "Zeus@test.com"
@@ -666,9 +651,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/Zeus</t>
     </r>
@@ -711,9 +695,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Login: "Jason"
 Email: "jason@test.com"
@@ -724,9 +707,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/Jason</t>
     </r>
@@ -775,9 +757,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Login: "Michael"
 Email: "michael@test.com"
@@ -788,17 +769,17 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/Michael</t>
     </r>
   </si>
   <si>
     <t>1. Форма не отправлена
-2. Поле Re-Enter Password окрашено красным, появляется ошибка
-3. При переходе на эндпоинт GET /user/user/Michael, пользователь с Login: Michael отсутствует в системе</t>
+2. Поле Re-Enter Password окрашено красным
+3. Появляется ошибка
+4. При переходе на эндпоинт GET /user/user/Michael, пользователь с Login: Michael отсутствует в системе</t>
   </si>
   <si>
     <t>1. Форма не отправлена
@@ -830,9 +811,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Login: "Ben"
 Email: "ben@example.com"
@@ -843,22 +823,23 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/Ben</t>
     </r>
   </si>
   <si>
     <t>1. Форма не отправлена
-2. Поле Re-Enter Password окрашено красным, появляется ошибка
-3. При переходе на эндпоинт GET /user/user/Ben, пользователь с Login: Ben отсутствует в системе</t>
+2. Поле Re-Enter Password окрашено красным
+3. Появляется ошибка
+4. При переходе на эндпоинт GET /user/user/Ben, пользователь с Login: Ben отсутствует в системе</t>
   </si>
   <si>
     <t>1. Форма не отправлена
-2. Поле Re-Enter Password окрашено красным, присутствует сообщение об ошибке "Подтвердите пароль!"
-3. При переходе на эндпоинт GET /user/user/Ben пользователь Login: Ben отсутствует</t>
+2. Поле Re-Enter Password окрашено красным
+3. Присутствует сообщение об ошибке "Подтвердите пароль!"
+4. При переходе на эндпоинт GET /user/user/Ben пользователь Login: Ben отсутствует</t>
   </si>
   <si>
     <t>TC-17</t>
@@ -888,9 +869,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Login: "Marcus"
 Email: "Marcus@mail.com"
@@ -901,9 +881,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/Marcus</t>
     </r>
@@ -956,13 +935,15 @@
   </si>
   <si>
     <t>1. Форма не отправлена
-2. Поле Email окрашено красным, появляется ошибка
-3. При переходе на эндпоинт GET /user/user/Jane, пользователь с Login: Jane отсутствует в системе</t>
+2. Поле Email окрашено красным
+3. Появляется ошибка
+4. При переходе на эндпоинт GET /user/user/Jane, пользователь с Login: Jane отсутствует в системе</t>
   </si>
   <si>
     <t>1. Форма не отправлена
-2. Поле Re-Enter Password окрашено красным, присутствует сообщение об ошибке "Некорректный Email"
-3. При переходе на эндпоинт GET /user/user/Jane пользователь Login: Jane отсутствует</t>
+2. Поле Re-Enter Password окрашено красным
+3. Присутствует сообщение об ошибке "Некорректный Email"
+4. При переходе на эндпоинт GET /user/user/Jane пользователь Login: Jane отсутствует</t>
   </si>
   <si>
     <t>TC-19</t>
@@ -1112,13 +1093,15 @@
   </si>
   <si>
     <t>1. Форма отправлена
-2. Регистрация не завершается, появляется ошибка
-3. При переходе на эндпоинт GET /users/users/, убедиться что отсутствует дубликат пользователя с Email: liza@test.com</t>
+2. Регистрация не завершается
+3. Появляется ошибка
+4. При переходе на эндпоинт GET /users/users/, убедиться что отсутствует дубликат пользователя с Email: liza@test.com</t>
   </si>
   <si>
     <t>1. Форма отправлена
-2. Регистрация не завершается, появляется ошибка "User with this login or email already exists"
-3. Дубликат пользователя с Email: liza@test.com отсутствует в системе</t>
+2. Регистрация не завершается
+3. Появляется ошибка "User with this login or email already exists"
+4. Дубликат пользователя с Email: liza@test.com отсутствует в системе</t>
   </si>
   <si>
     <t>TC-23</t>
@@ -1148,16 +1131,19 @@
   </si>
   <si>
     <t>1. Форма не отправлена
-2. Поля ввода окрашиваются красным, появляются ошибки
-3. Регистарция не завершается</t>
+2. Поля ввода окрашиваются красным
+3. Появляются сообщения об ошибках
+4. Регистарция не завершается</t>
   </si>
   <si>
     <t>1. Форма не отправлена
-2. Поля окрашиваются красным, появляются сообщения об ошибке:
+2. Поля окрашиваются красным
+3. Появляются сообщения об ошибке:
 Поле Login: Введите Login
 Поле Email: Введите Email
 Поле Password: Введите пароль
-Поле Re-Enter Password: Подтвердите пароль</t>
+Поле Re-Enter Password: Подтвердите пароль
+4. Регистрация не завершается</t>
   </si>
   <si>
     <t>TC-24</t>
@@ -1251,11 +1237,13 @@
   </si>
   <si>
     <t>1. Форме не отправлена
-2. Поле Email окрашено красным, появляется сообщение об ошибке</t>
+2. Поле Email окрашено красным
+3. Появляется сообщение об ошибке</t>
   </si>
   <si>
     <t>1. Форма не отправлена
-2. Поле Email окрашено красным, появляется сообщение об ошибке: "Введите Email"</t>
+2. Поле Email окрашено красным
+3. Появляется сообщение об ошибке: "Введите Email"</t>
   </si>
   <si>
     <t>TC-27</t>
@@ -1285,11 +1273,16 @@
   </si>
   <si>
     <t>1. Форме отправлена
-2. Появляется сообщение об ошибке</t>
+2. Поле Password окрашено красным
+3. Появляется сообщение об ошибке</t>
   </si>
   <si>
     <t>1. Форма отправлена
-2. Поле Password окрашено крассным, отсутствует сообщение об ошибке</t>
+2. Поле Password окрашено крассным
+3. Сообщение об ошибке отсутствует</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>Очевидно, что система окрашивает поле красным, так как пароль для конкретного пользователя является некорректным, но сообщение об ошибке отсутствует, что не дает понять пользователю, в чем заключается ошибка и может привести к отрицательному пользовательскому опыту</t>
@@ -1315,7 +1308,8 @@
   </si>
   <si>
     <t>1. Форма отправлена
-2. Поле Password окрашено крассным, отсутствует сообщение об ошибке: "Введите пароль"</t>
+2. Поле Password окрашено крассным
+3. Появляется сообщение об ошибке: "Введите пароль"</t>
   </si>
   <si>
     <t>TC-29</t>
@@ -1338,11 +1332,13 @@
   </si>
   <si>
     <t>1. Форме не отправлена
-2. Поле Email и Password окрашены красным, появляются сообщения об ошибке</t>
+2. Поле Email и Password окрашены красным
+3. Появляются сообщения об ошибке</t>
   </si>
   <si>
     <t>1. Форма не отправлена
-2. Поле Email и Password окрашено крассным, появляются сообщения об ошибке:
+2. Поле Email и Password окрашено крассным
+3. Присутствуют сообщения об ошибке:
 Email: "Введите Email"
 Password: "Введите пароль"</t>
   </si>
@@ -1353,7 +1349,7 @@
     <t>Получение информации о пользователе через GET /user/user/{login} с существующим Login</t>
   </si>
   <si>
-    <t>Проверить, что эндпоинт GET /user/user/{login} возвращает информацию о пользователе при передаче существующего Login	"</t>
+    <t>Проверить, что эндпоинт GET /user/user/{login} возвращает информацию о пользователе при передаче существующего Login</t>
   </si>
   <si>
     <t>1. Убедиться, что эндпоинт GET /user/user/{login} доступен для запроса
@@ -1371,17 +1367,15 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">URL: </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/Dmitry</t>
     </r>
@@ -1429,17 +1423,15 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">URL: </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/SuperUser</t>
     </r>
@@ -1482,17 +1474,15 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">URL: </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/user/user/</t>
     </r>
@@ -1521,17 +1511,15 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">URL: </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/users/users/</t>
     </r>
@@ -1564,80 +1552,54 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">URL: </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>http://127.0.0.1:5000/api/v1/users/users/?extraField=ExtraValue</t>
     </r>
-  </si>
-  <si>
-    <t>1. Форме отправлена
-2. Поле Password окрашивается красным, появляется сообщение об ошибке</t>
-  </si>
-  <si>
-    <t>Defect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="6">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFEFEFEF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1645,7 +1607,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1667,13 +1629,7 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1687,7 +1643,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1696,69 +1651,87 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="20">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1948,37 +1921,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I32" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="8" width="51.44140625" customWidth="1"/>
-    <col min="9" max="9" width="45" customWidth="1"/>
-    <col min="10" max="10" width="43.44140625" customWidth="1"/>
-    <col min="11" max="11" width="35.33203125" customWidth="1"/>
-    <col min="13" max="13" width="27.109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="22.38"/>
+    <col customWidth="1" min="2" max="2" width="32.75"/>
+    <col customWidth="1" min="3" max="3" width="46.38"/>
+    <col customWidth="1" min="4" max="4" width="27.63"/>
+    <col customWidth="1" min="7" max="7" width="25.63"/>
+    <col customWidth="1" min="8" max="8" width="51.5"/>
+    <col customWidth="1" min="9" max="9" width="45.0"/>
+    <col customWidth="1" min="10" max="10" width="43.5"/>
+    <col customWidth="1" min="11" max="11" width="35.38"/>
+    <col customWidth="1" min="13" max="13" width="27.13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="36.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1988,16 +1956,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2019,1481 +1987,1483 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="151.5" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" ht="145.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" ht="161.25" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" ht="164.25" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" ht="146.25" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" ht="114.75" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" ht="125.25" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" ht="116.25" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" ht="25.5" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" ht="171.75" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" ht="153.0" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" ht="109.5" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" ht="133.5" customHeight="1">
+      <c r="A14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" ht="136.5" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" ht="41.25" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" ht="189.75" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" ht="126.75" customHeight="1">
+      <c r="A18" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" ht="131.25" customHeight="1">
+      <c r="A19" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" ht="35.25" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" ht="156.0" customHeight="1">
+      <c r="A21" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" ht="174.75" customHeight="1">
+      <c r="A22" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" ht="121.5" customHeight="1">
+      <c r="A23" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" ht="35.25" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" ht="123.75" customHeight="1">
+      <c r="A25" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" ht="123.0" customHeight="1">
+      <c r="A26" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" ht="125.25" customHeight="1">
+      <c r="A27" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" ht="125.25" customHeight="1">
+      <c r="A28" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" ht="39.0" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" ht="120.75" customHeight="1">
+      <c r="A30" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" ht="100.5" customHeight="1">
+      <c r="A31" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" ht="92.25" customHeight="1">
+      <c r="A32" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" ht="161.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" ht="141.0" customHeight="1">
+      <c r="A33" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" ht="85.5" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" ht="85.5" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" ht="34.5" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" ht="165.75" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" ht="165.75" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" ht="165.75" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" ht="165.75" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" ht="165.75" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="L34" s="2" t="s">
+      <c r="J41" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:14" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:14" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:14" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:14" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:14" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
+      <c r="M41" s="11"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46">
+      <c r="M46" s="18"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="E2:E9 E11:E15 E17:E19 E21:E23 E25:E28 E30:E35 E37:E41" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="E2:E9 E11:E15 E17:E19 E21:E23 E25:E28 E30:E35 E37:E41">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F9 F11:F15 F17:F19 F21:F23 F25:F28 F30:F35 F37:F41" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F9 F11:F15 F17:F19 F21:F23 F25:F28 F30:F35 F37:F41">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>